--- a/MY_DATA/Enemy/Enemy_Data.xlsx
+++ b/MY_DATA/Enemy/Enemy_Data.xlsx
@@ -395,7 +395,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -431,7 +431,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>5</v>
